--- a/Beli.xlsx
+++ b/Beli.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SoumyaK/Desktop/Parsons/Academics/Fall-2024/Thesis Studio/restaurant-wrapped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E1491A-B417-9B4C-98EE-84B4E6E44A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C612D1-56F0-5E4F-857A-556D35B54FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="620" windowWidth="35800" windowHeight="20100" activeTab="2" xr2:uid="{2FC9F4C0-538E-BC43-B26F-80E23C56D178}"/>
+    <workbookView xWindow="31060" yWindow="620" windowWidth="35800" windowHeight="20100" activeTab="2" xr2:uid="{2FC9F4C0-538E-BC43-B26F-80E23C56D178}"/>
   </bookViews>
   <sheets>
-    <sheet name="Soumya" sheetId="1" r:id="rId1"/>
+    <sheet name="person-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sanchita" sheetId="2" r:id="rId2"/>
     <sheet name="Utsav" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1097">
   <si>
     <t>Name</t>
   </si>
@@ -1391,9 +1391,6 @@
     <t>Chinese, Sichuan, Szechuan</t>
   </si>
   <si>
-    <t>Greek, Meditteranean</t>
-  </si>
-  <si>
     <t>Ice Cream, Dessert</t>
   </si>
   <si>
@@ -1418,12 +1415,6 @@
     <t>Café, Dessert, Chocolate Shop</t>
   </si>
   <si>
-    <t>Breakfast, Café, Meditteranean</t>
-  </si>
-  <si>
-    <t>Vegan, Israeli, Meditteranean</t>
-  </si>
-  <si>
     <t>Japenese, Sushi</t>
   </si>
   <si>
@@ -3333,6 +3324,15 @@
   </si>
   <si>
     <t>Coffee, Café</t>
+  </si>
+  <si>
+    <t>Pescetarian</t>
+  </si>
+  <si>
+    <t>Breakfast, Café, Mediterranean</t>
+  </si>
+  <si>
+    <t>Vegan, Israeli, Mediterranean</t>
   </si>
 </sst>
 </file>
@@ -3812,8 +3812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB3BABE-4F79-4C44-A51F-94F0A3427452}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3898,7 +3898,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>178</v>
@@ -3935,6 +3935,9 @@
       <c r="G8" s="6">
         <v>45430</v>
       </c>
+      <c r="H8" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3959,6 +3962,9 @@
       <c r="G9" s="6">
         <v>45463</v>
       </c>
+      <c r="H9" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3983,6 +3989,9 @@
       <c r="G10" s="6">
         <v>45583</v>
       </c>
+      <c r="H10" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4007,6 +4016,9 @@
       <c r="G11" s="6">
         <v>44966</v>
       </c>
+      <c r="H11" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4031,6 +4043,9 @@
       <c r="G12" s="6">
         <v>45322</v>
       </c>
+      <c r="H12" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4055,6 +4070,9 @@
       <c r="G13" s="6">
         <v>45500</v>
       </c>
+      <c r="H13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4079,6 +4097,9 @@
       <c r="G14" s="6">
         <v>45599</v>
       </c>
+      <c r="H14" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4103,6 +4124,9 @@
       <c r="G15" s="6">
         <v>45499</v>
       </c>
+      <c r="H15" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4127,8 +4151,11 @@
       <c r="G16" s="6">
         <v>45568</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -4151,8 +4178,11 @@
       <c r="G17" s="6">
         <v>44001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4175,8 +4205,11 @@
       <c r="G18" s="6">
         <v>45463</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -4199,8 +4232,11 @@
       <c r="G19" s="6">
         <v>45071</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>186</v>
       </c>
@@ -4223,8 +4259,11 @@
       <c r="G20" s="6">
         <v>44818</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -4247,8 +4286,11 @@
       <c r="G21" s="6">
         <v>45062</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -4271,8 +4313,11 @@
       <c r="G22" s="6">
         <v>45317</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -4295,8 +4340,11 @@
       <c r="G23" s="6">
         <v>45442</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4319,8 +4367,11 @@
       <c r="G24" s="6">
         <v>45248</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -4343,8 +4394,11 @@
       <c r="G25" s="6">
         <v>45604</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4367,8 +4421,11 @@
       <c r="G26" s="6">
         <v>45562</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -4391,8 +4448,11 @@
       <c r="G27" s="6">
         <v>45337</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4415,8 +4475,11 @@
       <c r="G28" s="6">
         <v>45585</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -4439,8 +4502,11 @@
       <c r="G29" s="6">
         <v>45150</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -4463,8 +4529,11 @@
       <c r="G30" s="6">
         <v>45249</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4487,8 +4556,11 @@
       <c r="G31" s="6">
         <v>45507</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4511,8 +4583,11 @@
       <c r="G32" s="6">
         <v>45493</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -4535,8 +4610,11 @@
       <c r="G33" s="6">
         <v>45523</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -4559,8 +4637,11 @@
       <c r="G34" s="6">
         <v>45503</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4583,8 +4664,11 @@
       <c r="G35" s="6">
         <v>45500</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -4607,8 +4691,11 @@
       <c r="G36" s="6">
         <v>45355</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -4631,8 +4718,11 @@
       <c r="G37" s="6">
         <v>45226</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -4655,8 +4745,11 @@
       <c r="G38" s="6">
         <v>45451</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4679,8 +4772,11 @@
       <c r="G39" s="6">
         <v>45154</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4703,8 +4799,11 @@
       <c r="G40" s="6">
         <v>45164</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -4727,8 +4826,11 @@
       <c r="G41" s="6">
         <v>44975</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -4751,8 +4853,11 @@
       <c r="G42" s="6">
         <v>45424</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +4880,11 @@
       <c r="G43" s="6">
         <v>45588</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -4796,8 +4904,11 @@
       <c r="F44" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4820,8 +4931,11 @@
       <c r="G45" s="6">
         <v>44968</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -4841,8 +4955,11 @@
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -4862,8 +4979,11 @@
       <c r="F47" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4886,8 +5006,11 @@
       <c r="G48" s="6">
         <v>45437</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -4910,8 +5033,11 @@
       <c r="G49" s="6">
         <v>45223</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -4934,8 +5060,11 @@
       <c r="G50" s="6">
         <v>45324</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -4958,8 +5087,11 @@
       <c r="G51" s="6">
         <v>45443</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4982,8 +5114,11 @@
       <c r="G52" s="6">
         <v>45533</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -5006,8 +5141,11 @@
       <c r="G53" s="6">
         <v>45196</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -5030,8 +5168,11 @@
       <c r="G54" s="6">
         <v>45423</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -5054,8 +5195,11 @@
       <c r="G55" s="6">
         <v>45190</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -5078,8 +5222,11 @@
       <c r="G56" s="6">
         <v>45487</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -5096,8 +5243,11 @@
       <c r="E57" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>196</v>
       </c>
@@ -5117,8 +5267,11 @@
       <c r="F58" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>201</v>
       </c>
@@ -5138,8 +5291,11 @@
       <c r="F59" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>200</v>
       </c>
@@ -5159,8 +5315,11 @@
       <c r="F60" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -5183,8 +5342,11 @@
       <c r="G61" s="6">
         <v>45152</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -5207,8 +5369,11 @@
       <c r="G62" s="6">
         <v>45349</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -5228,8 +5393,11 @@
       <c r="F63" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -5249,8 +5417,11 @@
       <c r="F64" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -5273,8 +5444,11 @@
       <c r="G65" s="6">
         <v>45031</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -5297,8 +5471,11 @@
       <c r="G66" s="6">
         <v>45578</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -5321,8 +5498,11 @@
       <c r="G67" s="6">
         <v>45405</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -5345,8 +5525,11 @@
       <c r="G68" s="6">
         <v>44639</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -5369,8 +5552,11 @@
       <c r="G69" s="6">
         <v>44966</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -5393,8 +5579,11 @@
       <c r="G70" s="6">
         <v>44909</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -5417,8 +5606,11 @@
       <c r="G71" s="6">
         <v>45538</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -5441,8 +5633,11 @@
       <c r="G72" s="6">
         <v>45319</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -5465,8 +5660,11 @@
       <c r="G73" s="6">
         <v>45486</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -5489,8 +5687,11 @@
       <c r="G74" s="6">
         <v>45333</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -5513,8 +5714,11 @@
       <c r="G75" s="6">
         <v>45318</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -5537,8 +5741,11 @@
       <c r="G76" s="6">
         <v>45172</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -5558,8 +5765,11 @@
       <c r="F77" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -5579,8 +5789,11 @@
       <c r="F78" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>210</v>
       </c>
@@ -5600,8 +5813,11 @@
       <c r="F79" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -5624,8 +5840,11 @@
       <c r="G80" s="6">
         <v>45332</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>211</v>
       </c>
@@ -5642,8 +5861,11 @@
       <c r="E81" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -5660,8 +5882,11 @@
       <c r="E82" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>215</v>
       </c>
@@ -5681,8 +5906,11 @@
       <c r="F83" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -5705,8 +5933,11 @@
       <c r="G84" s="6">
         <v>45423</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -5729,8 +5960,11 @@
       <c r="G85" s="6">
         <v>44967</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>217</v>
       </c>
@@ -5747,8 +5981,11 @@
       <c r="E86" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -5771,8 +6008,11 @@
       <c r="G87" s="6">
         <v>45415</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>132</v>
       </c>
@@ -5795,8 +6035,11 @@
       <c r="G88" s="6">
         <v>45436</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>218</v>
       </c>
@@ -5816,8 +6059,11 @@
       <c r="F89" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -5840,8 +6086,11 @@
       <c r="G90" s="6">
         <v>45498</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -5861,8 +6110,11 @@
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>224</v>
       </c>
@@ -5879,8 +6131,11 @@
       <c r="E92" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>222</v>
       </c>
@@ -5897,8 +6152,11 @@
       <c r="E93" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>226</v>
       </c>
@@ -5915,8 +6173,11 @@
       <c r="E94" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -5933,8 +6194,11 @@
       <c r="E95" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>228</v>
       </c>
@@ -5951,8 +6215,11 @@
       <c r="E96" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>229</v>
       </c>
@@ -5969,8 +6236,11 @@
       <c r="E97" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>266</v>
       </c>
@@ -5987,8 +6257,11 @@
       <c r="E98" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -6005,8 +6278,11 @@
       <c r="E99" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -6026,8 +6302,11 @@
       <c r="F100" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -6047,8 +6326,11 @@
       <c r="F101" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -6065,8 +6347,11 @@
       <c r="E102" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -6089,8 +6374,11 @@
       <c r="G103" s="6">
         <v>45606</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -6110,8 +6398,11 @@
       <c r="F104" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -6134,8 +6425,11 @@
       <c r="G105" s="6">
         <v>45262</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>146</v>
       </c>
@@ -6158,8 +6452,11 @@
       <c r="G106" s="6">
         <v>45350</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>269</v>
       </c>
@@ -6179,8 +6476,11 @@
       <c r="F107" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>271</v>
       </c>
@@ -6200,8 +6500,11 @@
       <c r="F108" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -6224,8 +6527,11 @@
       <c r="G109" s="6">
         <v>45556</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>150</v>
       </c>
@@ -6248,8 +6554,11 @@
       <c r="G110" s="6">
         <v>45381</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -6272,8 +6581,11 @@
       <c r="G111" s="6">
         <v>45155</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>239</v>
       </c>
@@ -6293,8 +6605,11 @@
       <c r="F112" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>241</v>
       </c>
@@ -6314,8 +6629,11 @@
       <c r="F113" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>242</v>
       </c>
@@ -6335,8 +6653,11 @@
       <c r="F114" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>244</v>
       </c>
@@ -6356,8 +6677,11 @@
       <c r="F115" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>153</v>
       </c>
@@ -6380,8 +6704,11 @@
       <c r="G116" s="6">
         <v>45173</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -6404,8 +6731,11 @@
       <c r="G117" s="6">
         <v>45177</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>156</v>
       </c>
@@ -6428,8 +6758,11 @@
       <c r="G118" s="6">
         <v>45242</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>246</v>
       </c>
@@ -6449,8 +6782,11 @@
       <c r="F119" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -6470,8 +6806,11 @@
       <c r="F120" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -6491,8 +6830,11 @@
       <c r="F121" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -6512,8 +6854,11 @@
       <c r="F122" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>251</v>
       </c>
@@ -6533,8 +6878,11 @@
       <c r="F123" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>275</v>
       </c>
@@ -6554,8 +6902,11 @@
       <c r="F124" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -6578,8 +6929,11 @@
       <c r="G125" s="6">
         <v>43799</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -6602,8 +6956,11 @@
       <c r="G126" s="6">
         <v>45361</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -6620,8 +6977,11 @@
       <c r="E127" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -6641,8 +7001,11 @@
       <c r="F128" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>161</v>
       </c>
@@ -6662,8 +7025,11 @@
       <c r="F129" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -6680,8 +7046,11 @@
       <c r="E130" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -6701,8 +7070,11 @@
       <c r="F131" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -6722,8 +7094,11 @@
       <c r="F132" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>261</v>
       </c>
@@ -6743,8 +7118,11 @@
       <c r="F133" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>162</v>
       </c>
@@ -6764,8 +7142,11 @@
       <c r="F134" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>165</v>
       </c>
@@ -6788,8 +7169,11 @@
       <c r="G135" s="6">
         <v>45345</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -6811,6 +7195,9 @@
       </c>
       <c r="G136" s="6">
         <v>45557</v>
+      </c>
+      <c r="H136" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6827,7 +7214,7 @@
   <dimension ref="A1:K289"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6908,7 +7295,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>178</v>
@@ -6925,7 +7312,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -6934,7 +7321,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>35</v>
@@ -6954,7 +7341,7 @@
         <v>279</v>
       </c>
       <c r="B9" s="7">
-        <f>B8+1</f>
+        <f t="shared" ref="B9:B72" si="0">B8+1</f>
         <v>2</v>
       </c>
       <c r="C9" s="9">
@@ -6981,14 +7368,14 @@
         <v>304</v>
       </c>
       <c r="B10" s="7">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="9">
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>294</v>
@@ -7008,7 +7395,7 @@
         <v>280</v>
       </c>
       <c r="B11" s="7">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="9">
@@ -7032,17 +7419,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B12" s="7">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="11">
         <v>9.9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>41</v>
@@ -7062,7 +7449,7 @@
         <v>341</v>
       </c>
       <c r="B13" s="7">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="11">
@@ -7086,17 +7473,17 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B14" s="7">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" s="11">
         <v>9.9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>301</v>
@@ -7113,17 +7500,17 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B15" s="7">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C15" s="9">
         <v>9.9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>371</v>
@@ -7143,7 +7530,7 @@
         <v>383</v>
       </c>
       <c r="B16" s="7">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C16" s="11">
@@ -7167,10 +7554,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B17" s="7">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C17" s="9">
@@ -7180,7 +7567,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
@@ -7194,10 +7581,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B18" s="7">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C18" s="10">
@@ -7207,7 +7594,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
@@ -7221,17 +7608,17 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B19" s="7">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C19" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>44</v>
@@ -7248,17 +7635,17 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B20" s="7">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C20" s="10">
         <v>9.8000000000000007</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>392</v>
@@ -7275,10 +7662,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B21" s="7">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C21" s="11">
@@ -7305,14 +7692,14 @@
         <v>310</v>
       </c>
       <c r="B22" s="7">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C22" s="9">
         <v>9.6999999999999993</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>311</v>
@@ -7332,7 +7719,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="7">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C23" s="11">
@@ -7359,7 +7746,7 @@
         <v>329</v>
       </c>
       <c r="B24" s="7">
-        <f>B23+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C24" s="11">
@@ -7386,14 +7773,14 @@
         <v>427</v>
       </c>
       <c r="B25" s="7">
-        <f>B24+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C25" s="11">
         <v>9.6999999999999993</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>371</v>
@@ -7410,10 +7797,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B26" s="7">
-        <f>B25+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C26" s="9">
@@ -7437,10 +7824,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B27" s="7">
-        <f>B26+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C27" s="9">
@@ -7464,20 +7851,20 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B28" s="7">
-        <f>B27+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C28" s="10">
         <v>9.6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>107</v>
@@ -7491,17 +7878,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B29" s="7">
-        <f>B28+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C29" s="10">
         <v>9.6</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>301</v>
@@ -7518,10 +7905,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B30" s="7">
-        <f>B29+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C30" s="11">
@@ -7548,14 +7935,14 @@
         <v>281</v>
       </c>
       <c r="B31" s="7">
-        <f>B30+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C31" s="9">
         <v>9.5</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>65</v>
@@ -7575,14 +7962,14 @@
         <v>391</v>
       </c>
       <c r="B32" s="7">
-        <f>B31+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C32" s="11">
         <v>9.5</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>392</v>
@@ -7602,7 +7989,7 @@
         <v>370</v>
       </c>
       <c r="B33" s="7">
-        <f>B32+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C33" s="9">
@@ -7626,17 +8013,17 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B34" s="7">
-        <f>B33+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C34" s="11">
         <v>9.5</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>336</v>
@@ -7653,10 +8040,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B35" s="7">
-        <f>B34+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C35" s="11">
@@ -7680,10 +8067,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B36" s="7">
-        <f>B35+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C36" s="9">
@@ -7693,7 +8080,7 @@
         <v>237</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>107</v>
@@ -7707,17 +8094,17 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B37" s="7">
-        <f>B36+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C37" s="10">
         <v>9.4</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>32</v>
@@ -7737,7 +8124,7 @@
         <v>165</v>
       </c>
       <c r="B38" s="7">
-        <f>B37+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C38" s="10">
@@ -7761,10 +8148,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B39" s="7">
-        <f>B38+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C39" s="9">
@@ -7788,10 +8175,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B40" s="7">
-        <f>B39+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C40" s="11">
@@ -7801,7 +8188,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>39</v>
@@ -7815,17 +8202,17 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B41" s="7">
-        <f>B40+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C41" s="9">
         <v>9.3000000000000007</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>164</v>
@@ -7842,17 +8229,17 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B42" s="7">
-        <f>B41+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C42" s="9">
         <v>9.3000000000000007</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>164</v>
@@ -7872,7 +8259,7 @@
         <v>403</v>
       </c>
       <c r="B43" s="7">
-        <f>B42+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C43" s="11">
@@ -7899,7 +8286,7 @@
         <v>390</v>
       </c>
       <c r="B44" s="7">
-        <f>B43+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C44" s="11">
@@ -7926,14 +8313,14 @@
         <v>420</v>
       </c>
       <c r="B45" s="7">
-        <f>B44+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C45" s="11">
         <v>9.3000000000000007</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>44</v>
@@ -7953,7 +8340,7 @@
         <v>76</v>
       </c>
       <c r="B46" s="7">
-        <f>B45+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C46" s="9">
@@ -7977,17 +8364,17 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B47" s="7">
-        <f>B46+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C47" s="11">
         <v>9.3000000000000007</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>35</v>
@@ -8004,10 +8391,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B48" s="7">
-        <f>B47+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C48" s="9">
@@ -8031,17 +8418,17 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B49" s="7">
-        <f>B48+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C49" s="11">
         <v>9.1999999999999993</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>41</v>
@@ -8061,14 +8448,14 @@
         <v>359</v>
       </c>
       <c r="B50" s="7">
-        <f>B49+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C50" s="11">
         <v>9.1999999999999993</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>360</v>
@@ -8088,7 +8475,7 @@
         <v>393</v>
       </c>
       <c r="B51" s="7">
-        <f>B50+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C51" s="11">
@@ -8112,17 +8499,17 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B52" s="7">
-        <f>B51+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C52" s="9">
         <v>9.1999999999999993</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>49</v>
@@ -8142,7 +8529,7 @@
         <v>285</v>
       </c>
       <c r="B53" s="7">
-        <f>B52+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C53" s="9">
@@ -8166,17 +8553,17 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B54" s="7">
-        <f>B53+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C54" s="9">
         <v>9.1999999999999993</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>164</v>
@@ -8193,17 +8580,17 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B55" s="7">
-        <f>B54+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C55" s="9">
         <v>9.1</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>137</v>
@@ -8223,7 +8610,7 @@
         <v>293</v>
       </c>
       <c r="B56" s="7">
-        <f>B55+1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C56" s="9">
@@ -8247,10 +8634,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B57" s="7">
-        <f>B56+1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C57" s="9">
@@ -8274,17 +8661,17 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B58" s="7">
-        <f>B57+1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C58" s="11">
         <v>9.1</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>23</v>
@@ -8304,14 +8691,14 @@
         <v>400</v>
       </c>
       <c r="B59" s="7">
-        <f>B58+1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C59" s="11">
         <v>9.1</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>137</v>
@@ -8331,14 +8718,14 @@
         <v>332</v>
       </c>
       <c r="B60" s="7">
-        <f>B59+1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C60" s="11">
         <v>9.1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>458</v>
+        <v>1095</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>311</v>
@@ -8358,14 +8745,14 @@
         <v>338</v>
       </c>
       <c r="B61" s="7">
-        <f>B60+1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C61" s="11">
         <v>9.1</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>289</v>
@@ -8382,10 +8769,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B62" s="7">
-        <f>B61+1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C62" s="11">
@@ -8409,17 +8796,17 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B63" s="7">
-        <f>B62+1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C63" s="9">
         <v>9</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>57</v>
@@ -8436,10 +8823,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B64" s="7">
-        <f>B63+1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C64" s="9">
@@ -8463,17 +8850,17 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B65" s="7">
-        <f>B64+1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C65" s="11">
         <v>9</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>164</v>
@@ -8487,10 +8874,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B66" s="7">
-        <f>B65+1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C66" s="9">
@@ -8514,10 +8901,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B67" s="7">
-        <f>B66+1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C67" s="10">
@@ -8544,14 +8931,14 @@
         <v>366</v>
       </c>
       <c r="B68" s="7">
-        <f>B67+1</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C68" s="11">
         <v>8.9</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>367</v>
@@ -8571,14 +8958,14 @@
         <v>324</v>
       </c>
       <c r="B69" s="7">
-        <f>B68+1</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C69" s="11">
         <v>8.9</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>325</v>
@@ -8595,10 +8982,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B70" s="7">
-        <f>B69+1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C70" s="10">
@@ -8625,7 +9012,7 @@
         <v>396</v>
       </c>
       <c r="B71" s="7">
-        <f>B70+1</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C71" s="11">
@@ -8652,14 +9039,14 @@
         <v>316</v>
       </c>
       <c r="B72" s="7">
-        <f>B71+1</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C72" s="11">
         <v>8.9</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>44</v>
@@ -8676,10 +9063,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B73" s="7">
-        <f>B72+1</f>
+        <f t="shared" ref="B73:B136" si="1">B72+1</f>
         <v>66</v>
       </c>
       <c r="C73" s="10">
@@ -8689,7 +9076,7 @@
         <v>51</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>39</v>
@@ -8703,17 +9090,17 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B74" s="7">
-        <f>B73+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C74" s="9">
         <v>8.8000000000000007</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>289</v>
@@ -8733,14 +9120,14 @@
         <v>303</v>
       </c>
       <c r="B75" s="7">
-        <f>B74+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C75" s="9">
         <v>8.8000000000000007</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>73</v>
@@ -8760,7 +9147,7 @@
         <v>423</v>
       </c>
       <c r="B76" s="7">
-        <f>B75+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C76" s="11">
@@ -8787,7 +9174,7 @@
         <v>425</v>
       </c>
       <c r="B77" s="7">
-        <f>B76+1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C77" s="11">
@@ -8814,7 +9201,7 @@
         <v>87</v>
       </c>
       <c r="B78" s="7">
-        <f>B77+1</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C78" s="9">
@@ -8841,7 +9228,7 @@
         <v>363</v>
       </c>
       <c r="B79" s="7">
-        <f>B78+1</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C79" s="11">
@@ -8868,7 +9255,7 @@
         <v>362</v>
       </c>
       <c r="B80" s="7">
-        <f>B79+1</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C80" s="11">
@@ -8895,14 +9282,14 @@
         <v>404</v>
       </c>
       <c r="B81" s="7">
-        <f>B80+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C81" s="11">
         <v>8.8000000000000007</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>149</v>
@@ -8922,14 +9309,14 @@
         <v>404</v>
       </c>
       <c r="B82" s="7">
-        <f>B81+1</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C82" s="9">
         <v>8.8000000000000007</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>98</v>
@@ -8949,7 +9336,7 @@
         <v>409</v>
       </c>
       <c r="B83" s="7">
-        <f>B82+1</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C83" s="11">
@@ -8973,10 +9360,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B84" s="7">
-        <f>B83+1</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C84" s="11">
@@ -9000,10 +9387,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B85" s="7">
-        <f>B84+1</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C85" s="11">
@@ -9030,14 +9417,14 @@
         <v>357</v>
       </c>
       <c r="B86" s="7">
-        <f>B85+1</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C86" s="11">
         <v>8.6</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>358</v>
@@ -9057,14 +9444,14 @@
         <v>381</v>
       </c>
       <c r="B87" s="7">
-        <f>B86+1</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C87" s="11">
         <v>8.6</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>35</v>
@@ -9084,7 +9471,7 @@
         <v>384</v>
       </c>
       <c r="B88" s="7">
-        <f>B87+1</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C88" s="11">
@@ -9111,7 +9498,7 @@
         <v>45</v>
       </c>
       <c r="B89" s="7">
-        <f>B88+1</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C89" s="11">
@@ -9138,7 +9525,7 @@
         <v>331</v>
       </c>
       <c r="B90" s="7">
-        <f>B89+1</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C90" s="11">
@@ -9165,14 +9552,14 @@
         <v>375</v>
       </c>
       <c r="B91" s="7">
-        <f>B90+1</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C91" s="11">
         <v>8.5</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>376</v>
@@ -9192,7 +9579,7 @@
         <v>40</v>
       </c>
       <c r="B92" s="7">
-        <f>B91+1</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C92" s="9">
@@ -9216,10 +9603,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B93" s="7">
-        <f>B92+1</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C93" s="11">
@@ -9246,7 +9633,7 @@
         <v>291</v>
       </c>
       <c r="B94" s="7">
-        <f>B93+1</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="C94" s="9">
@@ -9273,7 +9660,7 @@
         <v>138</v>
       </c>
       <c r="B95" s="7">
-        <f>B94+1</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="C95" s="11">
@@ -9300,7 +9687,7 @@
         <v>333</v>
       </c>
       <c r="B96" s="7">
-        <f>B95+1</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C96" s="11">
@@ -9327,14 +9714,14 @@
         <v>46</v>
       </c>
       <c r="B97" s="7">
-        <f>B96+1</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C97" s="9">
         <v>8.5</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>20</v>
@@ -9354,14 +9741,14 @@
         <v>374</v>
       </c>
       <c r="B98" s="7">
-        <f>B97+1</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C98" s="11">
         <v>8.5</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>29</v>
@@ -9381,7 +9768,7 @@
         <v>394</v>
       </c>
       <c r="B99" s="7">
-        <f>B98+1</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C99" s="11">
@@ -9405,17 +9792,17 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B100" s="7">
-        <f>B99+1</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C100" s="9">
         <v>8.4</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>289</v>
@@ -9432,17 +9819,17 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B101" s="7">
-        <f>B100+1</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C101" s="11">
         <v>8.4</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>388</v>
@@ -9459,17 +9846,17 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B102" s="7">
-        <f>B101+1</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C102" s="10">
         <v>8.4</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>23</v>
@@ -9489,7 +9876,7 @@
         <v>151</v>
       </c>
       <c r="B103" s="7">
-        <f>B102+1</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C103" s="11">
@@ -9513,17 +9900,17 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B104" s="7">
-        <f>B103+1</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C104" s="9">
         <v>8.4</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>23</v>
@@ -9540,17 +9927,17 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B105" s="7">
-        <f>B104+1</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C105" s="9">
         <v>8.3000000000000007</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>371</v>
@@ -9570,14 +9957,14 @@
         <v>389</v>
       </c>
       <c r="B106" s="7">
-        <f>B105+1</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C106" s="11">
         <v>8.3000000000000007</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>301</v>
@@ -9594,17 +9981,17 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B107" s="7">
-        <f>B106+1</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C107" s="9">
         <v>8.3000000000000007</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>23</v>
@@ -9621,17 +10008,17 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B108" s="7">
-        <f>B107+1</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="C108" s="10">
         <v>8.3000000000000007</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>23</v>
@@ -9651,14 +10038,14 @@
         <v>395</v>
       </c>
       <c r="B109" s="7">
-        <f>B108+1</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="C109" s="11">
         <v>8.3000000000000007</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>392</v>
@@ -9678,14 +10065,14 @@
         <v>372</v>
       </c>
       <c r="B110" s="7">
-        <f>B109+1</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="C110" s="11">
         <v>8.3000000000000007</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>164</v>
@@ -9705,7 +10092,7 @@
         <v>300</v>
       </c>
       <c r="B111" s="7">
-        <f>B110+1</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="C111" s="9">
@@ -9729,17 +10116,17 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B112" s="7">
-        <f>B111+1</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="C112" s="10">
         <v>8.3000000000000007</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>350</v>
@@ -9756,17 +10143,17 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B113" s="7">
-        <f>B112+1</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="C113" s="9">
         <v>8.3000000000000007</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>289</v>
@@ -9783,17 +10170,17 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B114" s="7">
-        <f>B113+1</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="C114" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>57</v>
@@ -9810,17 +10197,17 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B115" s="7">
-        <f>B114+1</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="C115" s="11">
         <v>8.1999999999999993</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>301</v>
@@ -9837,17 +10224,17 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B116" s="7">
-        <f>B115+1</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="C116" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>367</v>
@@ -9864,10 +10251,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B117" s="7">
-        <f>B116+1</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="C117" s="9">
@@ -9891,17 +10278,17 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B118" s="7">
-        <f>B117+1</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="C118" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>57</v>
@@ -9918,17 +10305,17 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B119" s="7">
-        <f>B118+1</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="C119" s="10">
         <v>8.1999999999999993</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>57</v>
@@ -9948,14 +10335,14 @@
         <v>320</v>
       </c>
       <c r="B120" s="7">
-        <f>B119+1</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="C120" s="11">
         <v>8.1999999999999993</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>321</v>
@@ -9972,17 +10359,17 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B121" s="7">
-        <f>B120+1</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="C121" s="11">
         <v>8.1999999999999993</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>376</v>
@@ -9999,17 +10386,17 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B122" s="7">
-        <f>B121+1</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="C122" s="9">
         <v>8.1</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>29</v>
@@ -10029,14 +10416,14 @@
         <v>401</v>
       </c>
       <c r="B123" s="7">
-        <f>B122+1</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="C123" s="11">
         <v>8.1</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>376</v>
@@ -10056,14 +10443,14 @@
         <v>318</v>
       </c>
       <c r="B124" s="7">
-        <f>B123+1</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="C124" s="11">
         <v>8.1</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>311</v>
@@ -10083,14 +10470,14 @@
         <v>408</v>
       </c>
       <c r="B125" s="7">
-        <f>B124+1</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="C125" s="11">
         <v>8.1</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>388</v>
@@ -10110,14 +10497,14 @@
         <v>415</v>
       </c>
       <c r="B126" s="7">
-        <f>B125+1</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="C126" s="11">
         <v>8.1</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>376</v>
@@ -10137,14 +10524,14 @@
         <v>416</v>
       </c>
       <c r="B127" s="7">
-        <f>B126+1</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="C127" s="11">
         <v>8.1</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>9</v>
@@ -10164,14 +10551,14 @@
         <v>353</v>
       </c>
       <c r="B128" s="7">
-        <f>B127+1</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="C128" s="11">
         <v>8.1</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>289</v>
@@ -10188,10 +10575,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B129" s="7">
-        <f>B128+1</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="C129" s="9">
@@ -10215,17 +10602,17 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B130" s="7">
-        <f>B129+1</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="C130" s="11">
         <v>8</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>57</v>
@@ -10242,17 +10629,17 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B131" s="7">
-        <f>B130+1</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="C131" s="11">
         <v>8</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>57</v>
@@ -10272,14 +10659,14 @@
         <v>399</v>
       </c>
       <c r="B132" s="7">
-        <f>B131+1</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="C132" s="11">
         <v>8</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>149</v>
@@ -10296,17 +10683,17 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B133" s="7">
-        <f>B132+1</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="C133" s="11">
         <v>8</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>35</v>
@@ -10323,17 +10710,17 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B134" s="7">
-        <f>B133+1</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="C134" s="11">
         <v>8</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>89</v>
@@ -10353,7 +10740,7 @@
         <v>288</v>
       </c>
       <c r="B135" s="7">
-        <f>B134+1</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="C135" s="9">
@@ -10380,7 +10767,7 @@
         <v>398</v>
       </c>
       <c r="B136" s="7">
-        <f>B135+1</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="C136" s="11">
@@ -10407,7 +10794,7 @@
         <v>302</v>
       </c>
       <c r="B137" s="7">
-        <f>B136+1</f>
+        <f t="shared" ref="B137:B200" si="2">B136+1</f>
         <v>130</v>
       </c>
       <c r="C137" s="9">
@@ -10431,17 +10818,17 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B138" s="7">
-        <f>B137+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="C138" s="11">
         <v>7.9</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>41</v>
@@ -10461,14 +10848,14 @@
         <v>377</v>
       </c>
       <c r="B139" s="7">
-        <f>B138+1</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="C139" s="11">
         <v>7.8</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>29</v>
@@ -10485,10 +10872,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B140" s="7">
-        <f>B139+1</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="C140" s="9">
@@ -10512,20 +10899,20 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B141" s="7">
-        <f>B140+1</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="C141" s="10">
         <v>7.8</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>39</v>
@@ -10542,14 +10929,14 @@
         <v>378</v>
       </c>
       <c r="B142" s="7">
-        <f>B141+1</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="C142" s="11">
         <v>7.8</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>164</v>
@@ -10566,10 +10953,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B143" s="7">
-        <f>B142+1</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="C143" s="11">
@@ -10596,7 +10983,7 @@
         <v>410</v>
       </c>
       <c r="B144" s="7">
-        <f>B143+1</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="C144" s="11">
@@ -10623,7 +11010,7 @@
         <v>339</v>
       </c>
       <c r="B145" s="7">
-        <f>B144+1</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="C145" s="11">
@@ -10650,14 +11037,14 @@
         <v>428</v>
       </c>
       <c r="B146" s="7">
-        <f>B145+1</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="C146" s="11">
         <v>7.8</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>41</v>
@@ -10677,7 +11064,7 @@
         <v>365</v>
       </c>
       <c r="B147" s="7">
-        <f>B146+1</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="C147" s="11">
@@ -10701,10 +11088,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B148" s="7">
-        <f>B147+1</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="C148" s="10">
@@ -10728,10 +11115,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B149" s="7">
-        <f>B148+1</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="C149" s="11">
@@ -10755,10 +11142,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B150" s="7">
-        <f>B149+1</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="C150" s="10">
@@ -10785,7 +11172,7 @@
         <v>379</v>
       </c>
       <c r="B151" s="7">
-        <f>B150+1</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="C151" s="11">
@@ -10809,17 +11196,17 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B152" s="7">
-        <f>B151+1</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="C152" s="9">
         <v>7.7</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>92</v>
@@ -10839,7 +11226,7 @@
         <v>406</v>
       </c>
       <c r="B153" s="7">
-        <f>B152+1</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="C153" s="11">
@@ -10866,14 +11253,14 @@
         <v>314</v>
       </c>
       <c r="B154" s="7">
-        <f>B153+1</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="C154" s="11">
         <v>7.6</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>309</v>
@@ -10893,7 +11280,7 @@
         <v>349</v>
       </c>
       <c r="B155" s="7">
-        <f>B154+1</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="C155" s="11">
@@ -10917,17 +11304,17 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B156" s="7">
-        <f>B155+1</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="C156" s="10">
         <v>7.6</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>29</v>
@@ -10947,7 +11334,7 @@
         <v>131</v>
       </c>
       <c r="B157" s="7">
-        <f>B156+1</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="C157" s="9">
@@ -10971,20 +11358,20 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B158" s="7">
-        <f>B157+1</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="C158" s="9">
         <v>7.6</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>39</v>
@@ -10998,17 +11385,17 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B159" s="7">
-        <f>B158+1</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="C159" s="10">
         <v>7.6</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>164</v>
@@ -11025,17 +11412,17 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B160" s="7">
-        <f>B159+1</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="C160" s="10">
         <v>7.6</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>336</v>
@@ -11052,10 +11439,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B161" s="7">
-        <f>B160+1</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="C161" s="10">
@@ -11079,17 +11466,17 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B162" s="7">
-        <f>B161+1</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="C162" s="9">
         <v>7.6</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>336</v>
@@ -11109,7 +11496,7 @@
         <v>297</v>
       </c>
       <c r="B163" s="7">
-        <f>B162+1</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="C163" s="9">
@@ -11133,10 +11520,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B164" s="7">
-        <f>B163+1</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="C164" s="9">
@@ -11160,17 +11547,17 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B165" s="7">
-        <f>B164+1</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="C165" s="9">
         <v>7.5</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>388</v>
@@ -11190,14 +11577,14 @@
         <v>411</v>
       </c>
       <c r="B166" s="7">
-        <f>B165+1</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="C166" s="11">
         <v>7.5</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>388</v>
@@ -11214,10 +11601,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B167" s="7">
-        <f>B166+1</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="C167" s="9">
@@ -11244,7 +11631,7 @@
         <v>382</v>
       </c>
       <c r="B168" s="7">
-        <f>B167+1</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="C168" s="11">
@@ -11268,10 +11655,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B169" s="7">
-        <f>B168+1</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="C169" s="9">
@@ -11281,7 +11668,7 @@
         <v>8</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>39</v>
@@ -11298,7 +11685,7 @@
         <v>412</v>
       </c>
       <c r="B170" s="7">
-        <f>B169+1</f>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="C170" s="11">
@@ -11325,14 +11712,14 @@
         <v>346</v>
       </c>
       <c r="B171" s="7">
-        <f>B170+1</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="C171" s="11">
         <v>7.4</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>57</v>
@@ -11349,17 +11736,17 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B172" s="7">
-        <f>B171+1</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="C172" s="11">
         <v>7.4</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>422</v>
@@ -11376,17 +11763,17 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B173" s="7">
-        <f>B172+1</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="C173" s="10">
         <v>7.4</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>89</v>
@@ -11403,10 +11790,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B174" s="7">
-        <f>B173+1</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="C174" s="9">
@@ -11430,17 +11817,17 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B175" s="7">
-        <f>B174+1</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="C175" s="10">
         <v>7.3</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>29</v>
@@ -11457,10 +11844,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B176" s="7">
-        <f>B175+1</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="C176" s="11">
@@ -11484,10 +11871,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B177" s="7">
-        <f>B176+1</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="C177" s="9">
@@ -11514,14 +11901,14 @@
         <v>402</v>
       </c>
       <c r="B178" s="7">
-        <f>B177+1</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="C178" s="11">
         <v>7.3</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>289</v>
@@ -11541,14 +11928,14 @@
         <v>345</v>
       </c>
       <c r="B179" s="7">
-        <f>B178+1</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="C179" s="11">
         <v>7.3</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>336</v>
@@ -11568,7 +11955,7 @@
         <v>386</v>
       </c>
       <c r="B180" s="7">
-        <f>B179+1</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="C180" s="11">
@@ -11595,7 +11982,7 @@
         <v>307</v>
       </c>
       <c r="B181" s="7">
-        <f>B180+1</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="C181" s="9">
@@ -11622,7 +12009,7 @@
         <v>317</v>
       </c>
       <c r="B182" s="7">
-        <f>B181+1</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="C182" s="11">
@@ -11646,17 +12033,17 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B183" s="7">
-        <f>B182+1</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="C183" s="9">
         <v>7.3</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>289</v>
@@ -11676,7 +12063,7 @@
         <v>322</v>
       </c>
       <c r="B184" s="7">
-        <f>B183+1</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="C184" s="11">
@@ -11700,10 +12087,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B185" s="7">
-        <f>B184+1</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="C185" s="9">
@@ -11727,10 +12114,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B186" s="7">
-        <f>B185+1</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="C186" s="9">
@@ -11754,17 +12141,17 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B187" s="7">
-        <f>B186+1</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="C187" s="11">
         <v>7.2</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>422</v>
@@ -11784,14 +12171,14 @@
         <v>347</v>
       </c>
       <c r="B188" s="7">
-        <f>B187+1</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="C188" s="11">
         <v>7.1</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>348</v>
@@ -11811,7 +12198,7 @@
         <v>21</v>
       </c>
       <c r="B189" s="7">
-        <f>B188+1</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="C189" s="9">
@@ -11835,10 +12222,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B190" s="7">
-        <f>B189+1</f>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="C190" s="9">
@@ -11862,17 +12249,17 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B191" s="7">
-        <f>B190+1</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="C191" s="9">
         <v>7.1</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>149</v>
@@ -11892,14 +12279,14 @@
         <v>352</v>
       </c>
       <c r="B192" s="7">
-        <f>B191+1</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="C192" s="11">
         <v>7.1</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>29</v>
@@ -11916,17 +12303,17 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B193" s="7">
-        <f>B192+1</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="C193" s="9">
         <v>7.1</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>57</v>
@@ -11943,10 +12330,10 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B194" s="7">
-        <f>B193+1</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="C194" s="9">
@@ -11973,7 +12360,7 @@
         <v>306</v>
       </c>
       <c r="B195" s="7">
-        <f>B194+1</f>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="C195" s="9">
@@ -12000,14 +12387,14 @@
         <v>432</v>
       </c>
       <c r="B196" s="7">
-        <f>B195+1</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="C196" s="11">
         <v>7</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>376</v>
@@ -12024,10 +12411,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B197" s="7">
-        <f>B196+1</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="C197" s="9">
@@ -12051,10 +12438,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B198" s="7">
-        <f>B197+1</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="C198" s="11">
@@ -12078,10 +12465,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B199" s="7">
-        <f>B198+1</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="C199" s="9">
@@ -12091,7 +12478,7 @@
         <v>223</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>39</v>
@@ -12105,10 +12492,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B200" s="7">
-        <f>B199+1</f>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="C200" s="9">
@@ -12135,7 +12522,7 @@
         <v>335</v>
       </c>
       <c r="B201" s="7">
-        <f>B200+1</f>
+        <f t="shared" ref="B201:B264" si="3">B200+1</f>
         <v>194</v>
       </c>
       <c r="C201" s="11">
@@ -12159,10 +12546,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B202" s="7">
-        <f>B201+1</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="C202" s="9">
@@ -12183,14 +12570,14 @@
         <v>355</v>
       </c>
       <c r="B203" s="7">
-        <f>B202+1</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="C203" s="11">
         <v>6.9</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>57</v>
@@ -12207,10 +12594,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B204" s="7">
-        <f>B203+1</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="C204" s="9">
@@ -12234,10 +12621,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B205" s="7">
-        <f>B204+1</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="C205" s="11">
@@ -12264,7 +12651,7 @@
         <v>414</v>
       </c>
       <c r="B206" s="7">
-        <f>B205+1</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="C206" s="11">
@@ -12288,10 +12675,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B207" s="7">
-        <f>B206+1</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="C207" s="9">
@@ -12318,14 +12705,14 @@
         <v>356</v>
       </c>
       <c r="B208" s="7">
-        <f>B207+1</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="C208" s="11">
         <v>6.9</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>110</v>
@@ -12345,7 +12732,7 @@
         <v>299</v>
       </c>
       <c r="B209" s="7">
-        <f>B208+1</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="C209" s="9">
@@ -12369,17 +12756,17 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B210" s="7">
-        <f>B209+1</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="C210" s="9">
         <v>6.8</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E210" s="7" t="s">
         <v>92</v>
@@ -12399,14 +12786,14 @@
         <v>354</v>
       </c>
       <c r="B211" s="7">
-        <f>B210+1</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="C211" s="11">
         <v>6.8</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>57</v>
@@ -12426,14 +12813,14 @@
         <v>421</v>
       </c>
       <c r="B212" s="7">
-        <f>B211+1</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="C212" s="11">
         <v>6.8</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>422</v>
@@ -12453,7 +12840,7 @@
         <v>295</v>
       </c>
       <c r="B213" s="7">
-        <f>B212+1</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="C213" s="9">
@@ -12480,7 +12867,7 @@
         <v>113</v>
       </c>
       <c r="B214" s="7">
-        <f>B213+1</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="C214" s="11">
@@ -12507,14 +12894,14 @@
         <v>431</v>
       </c>
       <c r="B215" s="7">
-        <f>B214+1</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="C215" s="11">
         <v>6.8</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>26</v>
@@ -12531,10 +12918,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B216" s="7">
-        <f>B215+1</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="C216" s="9">
@@ -12561,14 +12948,14 @@
         <v>327</v>
       </c>
       <c r="B217" s="7">
-        <f>B216+1</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="C217" s="11">
         <v>6.7</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>328</v>
@@ -12585,17 +12972,17 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B218" s="7">
-        <f>B217+1</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="C218" s="9">
         <v>6.7</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>360</v>
@@ -12615,7 +13002,7 @@
         <v>361</v>
       </c>
       <c r="B219" s="7">
-        <f>B218+1</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="C219" s="11">
@@ -12639,17 +13026,17 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B220" s="7">
-        <f>B219+1</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="C220" s="11">
         <v>6.7</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>336</v>
@@ -12666,17 +13053,17 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B221" s="7">
-        <f>B220+1</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="C221" s="10">
         <v>6.7</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E221" s="10" t="s">
         <v>89</v>
@@ -12696,7 +13083,7 @@
         <v>418</v>
       </c>
       <c r="B222" s="7">
-        <f>B221+1</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="C222" s="11">
@@ -12723,14 +13110,14 @@
         <v>387</v>
       </c>
       <c r="B223" s="7">
-        <f>B222+1</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="C223" s="11">
         <v>6.6</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E223" s="10" t="s">
         <v>388</v>
@@ -12747,17 +13134,17 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B224" s="7">
-        <f>B223+1</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="C224" s="9">
         <v>6.6</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>422</v>
@@ -12774,17 +13161,17 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B225" s="7">
-        <f>B224+1</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="C225" s="11">
         <v>6.5</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E225" s="10" t="s">
         <v>388</v>
@@ -12804,14 +13191,14 @@
         <v>337</v>
       </c>
       <c r="B226" s="7">
-        <f>B225+1</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="C226" s="11">
         <v>6.5</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>459</v>
+        <v>1096</v>
       </c>
       <c r="E226" s="10" t="s">
         <v>23</v>
@@ -12828,10 +13215,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B227" s="7">
-        <f>B226+1</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="C227" s="10">
@@ -12858,14 +13245,14 @@
         <v>368</v>
       </c>
       <c r="B228" s="7">
-        <f>B227+1</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="C228" s="11">
         <v>6.4</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>57</v>
@@ -12882,17 +13269,17 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B229" s="7">
-        <f>B228+1</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="C229" s="11">
         <v>6.3</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E229" s="10" t="s">
         <v>289</v>
@@ -12909,10 +13296,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B230" s="7">
-        <f>B229+1</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="C230" s="10">
@@ -12936,10 +13323,10 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B231" s="7">
-        <f>B230+1</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="C231" s="9">
@@ -12963,17 +13350,17 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B232" s="7">
-        <f>B231+1</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="C232" s="9">
         <v>6.2</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E232" s="7" t="s">
         <v>350</v>
@@ -12990,10 +13377,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B233" s="7">
-        <f>B232+1</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="C233" s="9">
@@ -13017,17 +13404,17 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B234" s="7">
-        <f>B233+1</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="C234" s="11">
         <v>6</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E234" s="10" t="s">
         <v>98</v>
@@ -13047,7 +13434,7 @@
         <v>370</v>
       </c>
       <c r="B235" s="7">
-        <f>B234+1</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="C235" s="11">
@@ -13074,14 +13461,14 @@
         <v>373</v>
       </c>
       <c r="B236" s="7">
-        <f>B235+1</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="C236" s="11">
         <v>5.9</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E236" s="10" t="s">
         <v>98</v>
@@ -13098,17 +13485,17 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B237" s="7">
-        <f>B236+1</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="C237" s="9">
         <v>5.8</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E237" s="7" t="s">
         <v>26</v>
@@ -13125,10 +13512,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B238" s="7">
-        <f>B237+1</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="C238" s="9">
@@ -13152,17 +13539,17 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B239" s="7">
-        <f>B238+1</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="C239" s="9">
         <v>5.7</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E239" s="7" t="s">
         <v>289</v>
@@ -13182,14 +13569,14 @@
         <v>340</v>
       </c>
       <c r="B240" s="7">
-        <f>B239+1</f>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="C240" s="11">
         <v>5.6</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E240" s="10" t="s">
         <v>9</v>
@@ -13209,7 +13596,7 @@
         <v>305</v>
       </c>
       <c r="B241" s="7">
-        <f>B240+1</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="C241" s="9">
@@ -13233,10 +13620,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B242" s="7">
-        <f>B241+1</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="C242" s="11">
@@ -13260,10 +13647,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B243" s="7">
-        <f>B242+1</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="C243" s="9">
@@ -13290,14 +13677,14 @@
         <v>438</v>
       </c>
       <c r="B244" s="7">
-        <f>B243+1</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="C244" s="11">
         <v>5.5</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E244" s="10" t="s">
         <v>388</v>
@@ -13317,7 +13704,7 @@
         <v>370</v>
       </c>
       <c r="B245" s="7">
-        <f>B244+1</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="C245" s="11">
@@ -13341,10 +13728,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B246" s="7">
-        <f>B245+1</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="C246" s="11">
@@ -13368,17 +13755,17 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B247" s="7">
-        <f>B246+1</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="C247" s="9">
         <v>5.3</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E247" s="7" t="s">
         <v>407</v>
@@ -13398,7 +13785,7 @@
         <v>319</v>
       </c>
       <c r="B248" s="7">
-        <f>B247+1</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="C248" s="11">
@@ -13425,14 +13812,14 @@
         <v>116</v>
       </c>
       <c r="B249" s="7">
-        <f>B248+1</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="C249" s="11">
         <v>5.2</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>405</v>
@@ -13449,17 +13836,17 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B250" s="7">
-        <f>B249+1</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="C250" s="11">
         <v>5.2</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="E250" s="10" t="s">
         <v>89</v>
@@ -13479,14 +13866,14 @@
         <v>312</v>
       </c>
       <c r="B251" s="7">
-        <f>B250+1</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="C251" s="9">
         <v>5.0999999999999996</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E251" s="7" t="s">
         <v>313</v>
@@ -13503,17 +13890,17 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B252" s="7">
-        <f>B251+1</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="C252" s="9">
         <v>5.0999999999999996</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E252" s="7" t="s">
         <v>286</v>
@@ -13530,10 +13917,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B253" s="7">
-        <f>B252+1</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="C253" s="9">
@@ -13557,10 +13944,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B254" s="7">
-        <f>B253+1</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="C254" s="9">
@@ -13587,7 +13974,7 @@
         <v>434</v>
       </c>
       <c r="B255" s="7">
-        <f>B254+1</f>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="C255" s="11">
@@ -13614,7 +14001,7 @@
         <v>308</v>
       </c>
       <c r="B256" s="7">
-        <f>B255+1</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="C256" s="9">
@@ -13641,7 +14028,7 @@
         <v>81</v>
       </c>
       <c r="B257" s="7">
-        <f>B256+1</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="C257" s="9">
@@ -13668,14 +14055,14 @@
         <v>429</v>
       </c>
       <c r="B258" s="7">
-        <f>B257+1</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="C258" s="11">
         <v>4.8</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E258" s="10" t="s">
         <v>422</v>
@@ -13695,7 +14082,7 @@
         <v>424</v>
       </c>
       <c r="B259" s="7">
-        <f>B258+1</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="C259" s="11">
@@ -13722,7 +14109,7 @@
         <v>417</v>
       </c>
       <c r="B260" s="7">
-        <f>B259+1</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="C260" s="11">
@@ -13749,14 +14136,14 @@
         <v>369</v>
       </c>
       <c r="B261" s="7">
-        <f>B260+1</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="C261" s="11">
         <v>4.7</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E261" s="10" t="s">
         <v>29</v>
@@ -13773,10 +14160,10 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B262" s="7">
-        <f>B261+1</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="C262" s="9">
@@ -13800,17 +14187,17 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B263" s="7">
-        <f>B262+1</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="C263" s="11">
         <v>4.5999999999999996</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E263" s="10" t="s">
         <v>57</v>
@@ -13827,17 +14214,17 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B264" s="7">
-        <f>B263+1</f>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="C264" s="9">
         <v>4.5999999999999996</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E264" s="7" t="s">
         <v>23</v>
@@ -13854,17 +14241,17 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B265" s="7">
-        <f>B264+1</f>
+        <f t="shared" ref="B265:B289" si="4">B264+1</f>
         <v>258</v>
       </c>
       <c r="C265" s="9">
         <v>4.5999999999999996</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>29</v>
@@ -13881,10 +14268,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B266" s="7">
-        <f>B265+1</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="C266" s="11">
@@ -13911,7 +14298,7 @@
         <v>342</v>
       </c>
       <c r="B267" s="7">
-        <f>B266+1</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="C267" s="11">
@@ -13935,10 +14322,10 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B268" s="7">
-        <f>B267+1</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="C268" s="9">
@@ -13962,10 +14349,10 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B269" s="7">
-        <f>B268+1</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="C269" s="9">
@@ -13975,7 +14362,7 @@
         <v>22</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F269" s="7" t="s">
         <v>39</v>
@@ -13992,14 +14379,14 @@
         <v>364</v>
       </c>
       <c r="B270" s="7">
-        <f>B269+1</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="C270" s="11">
         <v>4.2</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E270" s="10" t="s">
         <v>350</v>
@@ -14016,10 +14403,10 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B271" s="7">
-        <f>B270+1</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="C271" s="11">
@@ -14046,14 +14433,14 @@
         <v>343</v>
       </c>
       <c r="B272" s="7">
-        <f>B271+1</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="C272" s="11">
         <v>4.0999999999999996</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E272" s="10" t="s">
         <v>57</v>
@@ -14073,7 +14460,7 @@
         <v>437</v>
       </c>
       <c r="B273" s="7">
-        <f>B272+1</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="C273" s="11">
@@ -14100,7 +14487,7 @@
         <v>385</v>
       </c>
       <c r="B274" s="7">
-        <f>B273+1</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="C274" s="11">
@@ -14127,7 +14514,7 @@
         <v>419</v>
       </c>
       <c r="B275" s="7">
-        <f>B274+1</f>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="C275" s="11">
@@ -14151,17 +14538,17 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B276" s="7">
-        <f>B275+1</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="C276" s="10">
         <v>3.8</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E276" s="10" t="s">
         <v>26</v>
@@ -14178,10 +14565,10 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B277" s="7">
-        <f>B276+1</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="C277" s="9">
@@ -14205,17 +14592,17 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B278" s="7">
-        <f>B277+1</f>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="C278" s="9">
         <v>3.8</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E278" s="7" t="s">
         <v>407</v>
@@ -14232,10 +14619,10 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B279" s="7">
-        <f>B278+1</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="C279" s="9">
@@ -14262,7 +14649,7 @@
         <v>436</v>
       </c>
       <c r="B280" s="7">
-        <f>B279+1</f>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="C280" s="11">
@@ -14286,10 +14673,10 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B281" s="7">
-        <f>B280+1</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="C281" s="9">
@@ -14316,14 +14703,14 @@
         <v>351</v>
       </c>
       <c r="B282" s="7">
-        <f>B281+1</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="C282" s="11">
         <v>3.5</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E282" s="10" t="s">
         <v>164</v>
@@ -14343,14 +14730,14 @@
         <v>433</v>
       </c>
       <c r="B283" s="7">
-        <f>B282+1</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="C283" s="11">
         <v>3.5</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E283" s="10" t="s">
         <v>388</v>
@@ -14367,17 +14754,17 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B284" s="7">
-        <f>B283+1</f>
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="C284" s="9">
         <v>3.4</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="E284" s="7" t="s">
         <v>422</v>
@@ -14397,7 +14784,7 @@
         <v>315</v>
       </c>
       <c r="B285" s="7">
-        <f>B284+1</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="C285" s="11">
@@ -14424,14 +14811,14 @@
         <v>439</v>
       </c>
       <c r="B286" s="7">
-        <f>B285+1</f>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="C286" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="E286" s="10" t="s">
         <v>422</v>
@@ -14451,7 +14838,7 @@
         <v>435</v>
       </c>
       <c r="B287" s="7">
-        <f>B286+1</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="C287" s="11">
@@ -14475,10 +14862,10 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B288" s="7">
-        <f>B287+1</f>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="C288" s="9">
@@ -14502,10 +14889,10 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B289" s="7">
-        <f>B288+1</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="C289" s="11">
@@ -14540,8 +14927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04421922-4673-F243-BAAE-E8EF8C4189BD}">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14600,7 +14987,9 @@
       <c r="A3" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>1094</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>441</v>
       </c>
@@ -14676,7 +15065,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>178</v>
@@ -14693,7 +15082,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B8" s="7">
         <f>1</f>
@@ -14703,10 +15092,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>60</v>
@@ -14720,12 +15109,12 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B9" s="7">
         <f>B8+1</f>
@@ -14735,7 +15124,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>137</v>
@@ -14752,12 +15141,12 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="10" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" ref="B10:B73" si="0">B9+1</f>
@@ -14767,10 +15156,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
@@ -14782,12 +15171,12 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -14797,7 +15186,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>371</v>
@@ -14815,7 +15204,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -14825,10 +15214,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>107</v>
@@ -14842,12 +15231,12 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="10" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -14860,10 +15249,10 @@
         <v>213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G13" s="8">
         <v>45459</v>
@@ -14874,12 +15263,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -14892,10 +15281,10 @@
         <v>56</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="10" t="s">
@@ -14907,7 +15296,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -14917,10 +15306,10 @@
         <v>9.9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>39</v>
@@ -14934,12 +15323,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -14949,13 +15338,13 @@
         <v>9.9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G16" s="12">
         <v>45575</v>
@@ -14966,12 +15355,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -14981,13 +15370,13 @@
         <v>9.9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="10" t="s">
@@ -14999,7 +15388,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -15012,7 +15401,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
@@ -15026,12 +15415,12 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -15041,10 +15430,10 @@
         <v>9.9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>60</v>
@@ -15058,7 +15447,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -15090,12 +15479,12 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -15105,13 +15494,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G21" s="8">
         <v>45341</v>
@@ -15122,12 +15511,12 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -15154,12 +15543,12 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -15169,10 +15558,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
@@ -15186,12 +15575,12 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -15204,7 +15593,7 @@
         <v>37</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
@@ -15218,12 +15607,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -15236,7 +15625,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>39</v>
@@ -15250,12 +15639,12 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -15265,7 +15654,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>23</v>
@@ -15282,12 +15671,12 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -15300,7 +15689,7 @@
         <v>223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>39</v>
@@ -15314,12 +15703,12 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -15329,10 +15718,10 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
@@ -15346,12 +15735,12 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -15361,7 +15750,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>92</v>
@@ -15378,12 +15767,12 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -15393,7 +15782,7 @@
         <v>9.6</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>149</v>
@@ -15410,12 +15799,12 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -15425,10 +15814,10 @@
         <v>9.6</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>264</v>
@@ -15442,12 +15831,12 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -15474,7 +15863,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -15507,7 +15896,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -15517,13 +15906,13 @@
         <v>9.6</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G34" s="12">
         <v>45575</v>
@@ -15534,12 +15923,12 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -15566,12 +15955,12 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -15598,12 +15987,12 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -15613,10 +16002,10 @@
         <v>9.6</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>10</v>
@@ -15630,12 +16019,12 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -15645,13 +16034,13 @@
         <v>9.6</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G38" s="8">
         <v>45461</v>
@@ -15662,7 +16051,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -15694,12 +16083,12 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -15712,7 +16101,7 @@
         <v>31</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>60</v>
@@ -15726,12 +16115,12 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="10" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -15741,10 +16130,10 @@
         <v>9.5</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
@@ -15758,12 +16147,12 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="10" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -15776,7 +16165,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
@@ -15790,12 +16179,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="10" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -15805,7 +16194,7 @@
         <v>9.5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>92</v>
@@ -15822,12 +16211,12 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -15840,7 +16229,7 @@
         <v>184</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -15854,12 +16243,12 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="10" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -15872,10 +16261,10 @@
         <v>163</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G45" s="12">
         <v>45469</v>
@@ -15886,12 +16275,12 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="10" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -15902,7 +16291,7 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="12">
@@ -15914,12 +16303,12 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B47" s="7">
         <f t="shared" si="0"/>
@@ -15930,7 +16319,7 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="12">
@@ -15942,12 +16331,12 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B48" s="7">
         <f t="shared" si="0"/>
@@ -15957,7 +16346,7 @@
         <v>9.4</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>35</v>
@@ -15974,12 +16363,12 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="10" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -15989,7 +16378,7 @@
         <v>9.4</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>289</v>
@@ -16006,12 +16395,12 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="10" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -16021,10 +16410,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>39</v>
@@ -16038,12 +16427,12 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -16056,7 +16445,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>10</v>
@@ -16070,12 +16459,12 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B52" s="7">
         <f t="shared" si="0"/>
@@ -16085,7 +16474,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>321</v>
@@ -16102,12 +16491,12 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B53" s="7">
         <f t="shared" si="0"/>
@@ -16134,12 +16523,12 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B54" s="7">
         <f t="shared" si="0"/>
@@ -16149,10 +16538,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
@@ -16166,12 +16555,12 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B55" s="7">
         <f t="shared" si="0"/>
@@ -16181,13 +16570,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G55" s="12">
         <v>45469</v>
@@ -16201,7 +16590,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B56" s="7">
         <f t="shared" si="0"/>
@@ -16214,10 +16603,10 @@
         <v>59</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="7" t="s">
@@ -16229,7 +16618,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B57" s="7">
         <f t="shared" si="0"/>
@@ -16242,7 +16631,7 @@
         <v>163</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="12">
@@ -16254,12 +16643,12 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="10" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B58" s="7">
         <f t="shared" si="0"/>
@@ -16286,12 +16675,12 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="10" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B59" s="7">
         <f t="shared" si="0"/>
@@ -16318,12 +16707,12 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B60" s="7">
         <f t="shared" si="0"/>
@@ -16333,10 +16722,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>107</v>
@@ -16350,12 +16739,12 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B61" s="7">
         <f t="shared" si="0"/>
@@ -16365,10 +16754,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>39</v>
@@ -16382,12 +16771,12 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B62" s="7">
         <f t="shared" si="0"/>
@@ -16398,7 +16787,7 @@
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8">
@@ -16410,12 +16799,12 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B63" s="7">
         <f t="shared" si="0"/>
@@ -16425,13 +16814,13 @@
         <v>9.1</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="7" t="s">
@@ -16443,7 +16832,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B64" s="7">
         <f t="shared" si="0"/>
@@ -16453,7 +16842,7 @@
         <v>9.1</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>15</v>
@@ -16470,12 +16859,12 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B65" s="7">
         <f t="shared" si="0"/>
@@ -16485,7 +16874,7 @@
         <v>9.1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>23</v>
@@ -16503,7 +16892,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B66" s="7">
         <f t="shared" si="0"/>
@@ -16513,10 +16902,10 @@
         <v>9.1</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
@@ -16530,12 +16919,12 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B67" s="7">
         <f t="shared" si="0"/>
@@ -16548,7 +16937,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>39</v>
@@ -16562,12 +16951,12 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B68" s="7">
         <f t="shared" si="0"/>
@@ -16577,13 +16966,13 @@
         <v>9</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G68" s="12">
         <v>45576</v>
@@ -16594,12 +16983,12 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B69" s="7">
         <f t="shared" si="0"/>
@@ -16609,10 +16998,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>39</v>
@@ -16626,12 +17015,12 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B70" s="7">
         <f t="shared" si="0"/>
@@ -16644,7 +17033,7 @@
         <v>199</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>60</v>
@@ -16658,12 +17047,12 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B71" s="7">
         <f t="shared" si="0"/>
@@ -16676,10 +17065,10 @@
         <v>22</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G71" s="12">
         <v>45470</v>
@@ -16690,12 +17079,12 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B72" s="7">
         <f t="shared" si="0"/>
@@ -16708,7 +17097,7 @@
         <v>154</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>263</v>
@@ -16723,7 +17112,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B73" s="7">
         <f t="shared" si="0"/>
@@ -16733,10 +17122,10 @@
         <v>8.9</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="12">
@@ -16748,12 +17137,12 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="10" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B74" s="7">
         <f t="shared" ref="B74:B137" si="1">B73+1</f>
@@ -16764,7 +17153,7 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="8">
@@ -16776,12 +17165,12 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B75" s="7">
         <f t="shared" si="1"/>
@@ -16792,7 +17181,7 @@
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="12">
@@ -16804,12 +17193,12 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B76" s="7">
         <f t="shared" si="1"/>
@@ -16819,13 +17208,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G76" s="8">
         <v>45340</v>
@@ -16836,12 +17225,12 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B77" s="7">
         <f t="shared" si="1"/>
@@ -16851,10 +17240,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>39</v>
@@ -16868,12 +17257,12 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B78" s="7">
         <f t="shared" si="1"/>
@@ -16883,7 +17272,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>41</v>
@@ -16900,12 +17289,12 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="10" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B79" s="7">
         <f t="shared" si="1"/>
@@ -16932,12 +17321,12 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B80" s="7">
         <f t="shared" si="1"/>
@@ -16947,10 +17336,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="8">
@@ -16962,12 +17351,12 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B81" s="7">
         <f t="shared" si="1"/>
@@ -16994,12 +17383,12 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B82" s="7">
         <f t="shared" si="1"/>
@@ -17026,12 +17415,12 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="10" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B83" s="7">
         <f t="shared" si="1"/>
@@ -17041,10 +17430,10 @@
         <v>8.6</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="12">
@@ -17056,12 +17445,12 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B84" s="7">
         <f t="shared" si="1"/>
@@ -17088,12 +17477,12 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B85" s="7">
         <f t="shared" si="1"/>
@@ -17103,10 +17492,10 @@
         <v>8.6</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>10</v>
@@ -17120,12 +17509,12 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="10" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B86" s="7">
         <f t="shared" si="1"/>
@@ -17138,7 +17527,7 @@
         <v>56</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>107</v>
@@ -17152,12 +17541,12 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B87" s="7">
         <f t="shared" si="1"/>
@@ -17184,12 +17573,12 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B88" s="7">
         <f t="shared" si="1"/>
@@ -17199,7 +17588,7 @@
         <v>8.5</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>137</v>
@@ -17216,12 +17605,12 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B89" s="7">
         <f t="shared" si="1"/>
@@ -17231,7 +17620,7 @@
         <v>8.5</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>23</v>
@@ -17248,12 +17637,12 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B90" s="7">
         <f t="shared" si="1"/>
@@ -17263,7 +17652,7 @@
         <v>8.5</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>41</v>
@@ -17280,12 +17669,12 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B91" s="7">
         <f t="shared" si="1"/>
@@ -17295,7 +17684,7 @@
         <v>8.5</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>350</v>
@@ -17312,12 +17701,12 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B92" s="7">
         <f t="shared" si="1"/>
@@ -17330,7 +17719,7 @@
         <v>37</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>10</v>
@@ -17345,7 +17734,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B93" s="7">
         <f t="shared" si="1"/>
@@ -17355,7 +17744,7 @@
         <v>8.4</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>23</v>
@@ -17372,7 +17761,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="10" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -17404,12 +17793,12 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="10" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B95" s="7">
         <f t="shared" si="1"/>
@@ -17419,7 +17808,7 @@
         <v>8.4</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>41</v>
@@ -17436,12 +17825,12 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="10" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B96" s="7">
         <f t="shared" si="1"/>
@@ -17451,7 +17840,7 @@
         <v>8.4</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>92</v>
@@ -17471,7 +17860,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B97" s="7">
         <f t="shared" si="1"/>
@@ -17481,7 +17870,7 @@
         <v>8.4</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>289</v>
@@ -17498,12 +17887,12 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B98" s="7">
         <f t="shared" si="1"/>
@@ -17516,7 +17905,7 @@
         <v>223</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>39</v>
@@ -17530,12 +17919,12 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B99" s="7">
         <f t="shared" si="1"/>
@@ -17562,12 +17951,12 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B100" s="7">
         <f t="shared" si="1"/>
@@ -17594,12 +17983,12 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B101" s="7">
         <f t="shared" si="1"/>
@@ -17609,10 +17998,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>107</v>
@@ -17626,12 +18015,12 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B102" s="7">
         <f t="shared" si="1"/>
@@ -17641,13 +18030,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G102" s="8">
         <v>45463</v>
@@ -17658,12 +18047,12 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B103" s="7">
         <f t="shared" si="1"/>
@@ -17676,7 +18065,7 @@
         <v>163</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="12">
@@ -17688,12 +18077,12 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B104" s="7">
         <f t="shared" si="1"/>
@@ -17703,10 +18092,10 @@
         <v>8.1</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>39</v>
@@ -17720,12 +18109,12 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B105" s="7">
         <f t="shared" si="1"/>
@@ -17735,7 +18124,7 @@
         <v>8.1</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>41</v>
@@ -17752,12 +18141,12 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="10" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B106" s="7">
         <f t="shared" si="1"/>
@@ -17767,10 +18156,10 @@
         <v>8.1</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>107</v>
@@ -17784,12 +18173,12 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="10" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B107" s="7">
         <f t="shared" si="1"/>
@@ -17816,12 +18205,12 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B108" s="7">
         <f t="shared" si="1"/>
@@ -17831,10 +18220,10 @@
         <v>8.1</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>39</v>
@@ -17848,12 +18237,12 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B109" s="7">
         <f t="shared" si="1"/>
@@ -17863,7 +18252,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>98</v>
@@ -17880,12 +18269,12 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="18" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B110" s="7">
         <f t="shared" si="1"/>
@@ -17895,7 +18284,7 @@
         <v>8</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>41</v>
@@ -17912,12 +18301,12 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B111" s="7">
         <f t="shared" si="1"/>
@@ -17927,7 +18316,7 @@
         <v>7.9</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>32</v>
@@ -17944,12 +18333,12 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B112" s="7">
         <f t="shared" si="1"/>
@@ -17959,7 +18348,7 @@
         <v>7.9</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>35</v>
@@ -17976,12 +18365,12 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B113" s="7">
         <f t="shared" si="1"/>
@@ -18008,7 +18397,7 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -18040,12 +18429,12 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B115" s="7">
         <f t="shared" si="1"/>
@@ -18055,7 +18444,7 @@
         <v>7.8</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>35</v>
@@ -18072,12 +18461,12 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B116" s="7">
         <f t="shared" si="1"/>
@@ -18088,7 +18477,7 @@
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="8">
@@ -18100,12 +18489,12 @@
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B117" s="7">
         <f t="shared" si="1"/>
@@ -18116,7 +18505,7 @@
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="12"/>
@@ -18129,7 +18518,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B118" s="7">
         <f t="shared" si="1"/>
@@ -18140,7 +18529,7 @@
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>39</v>
@@ -18154,12 +18543,12 @@
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B119" s="7">
         <f t="shared" si="1"/>
@@ -18169,10 +18558,10 @@
         <v>7.7</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>107</v>
@@ -18186,12 +18575,12 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B120" s="7">
         <f t="shared" si="1"/>
@@ -18204,7 +18593,7 @@
         <v>37</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>10</v>
@@ -18218,12 +18607,12 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B121" s="7">
         <f t="shared" si="1"/>
@@ -18233,7 +18622,7 @@
         <v>7.6</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>137</v>
@@ -18250,12 +18639,12 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B122" s="7">
         <f t="shared" si="1"/>
@@ -18278,12 +18667,12 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B123" s="7">
         <f t="shared" si="1"/>
@@ -18293,10 +18682,10 @@
         <v>7.5</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>39</v>
@@ -18310,12 +18699,12 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="10" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B124" s="7">
         <f t="shared" si="1"/>
@@ -18325,10 +18714,10 @@
         <v>7.5</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>265</v>
@@ -18343,7 +18732,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B125" s="7">
         <f t="shared" si="1"/>
@@ -18354,7 +18743,7 @@
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="8">
@@ -18366,12 +18755,12 @@
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B126" s="7">
         <f t="shared" si="1"/>
@@ -18381,7 +18770,7 @@
         <v>7.3</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>137</v>
@@ -18398,12 +18787,12 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B127" s="7">
         <f t="shared" si="1"/>
@@ -18413,7 +18802,7 @@
         <v>7.3</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>26</v>
@@ -18430,12 +18819,12 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B128" s="7">
         <f t="shared" si="1"/>
@@ -18462,12 +18851,12 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B129" s="7">
         <f t="shared" si="1"/>
@@ -18477,13 +18866,13 @@
         <v>7.2</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G129" s="12">
         <v>45470</v>
@@ -18494,12 +18883,12 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B130" s="7">
         <f t="shared" si="1"/>
@@ -18526,12 +18915,12 @@
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B131" s="7">
         <f t="shared" si="1"/>
@@ -18541,13 +18930,13 @@
         <v>7.2</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="7" t="s">
@@ -18559,7 +18948,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B132" s="7">
         <f t="shared" si="1"/>
@@ -18569,7 +18958,7 @@
         <v>7.1</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>23</v>
@@ -18586,12 +18975,12 @@
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B133" s="7">
         <f t="shared" si="1"/>
@@ -18601,7 +18990,7 @@
         <v>7</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>92</v>
@@ -18618,12 +19007,12 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B134" s="7">
         <f t="shared" si="1"/>
@@ -18633,7 +19022,7 @@
         <v>7</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>137</v>
@@ -18650,12 +19039,12 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B135" s="7">
         <f t="shared" si="1"/>
@@ -18683,7 +19072,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B136" s="7">
         <f t="shared" si="1"/>
@@ -18693,10 +19082,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>60</v>
@@ -18710,12 +19099,12 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B137" s="7">
         <f t="shared" si="1"/>
@@ -18725,7 +19114,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>164</v>
@@ -18743,7 +19132,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B138" s="7">
         <f t="shared" ref="B138:B171" si="2">B137+1</f>
@@ -18753,13 +19142,13 @@
         <v>7</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="7" t="s">
@@ -18771,7 +19160,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B139" s="7">
         <f t="shared" si="2"/>
@@ -18782,7 +19171,7 @@
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F139" s="7"/>
       <c r="G139" s="8">
@@ -18794,12 +19183,12 @@
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B140" s="7">
         <f t="shared" si="2"/>
@@ -18812,7 +19201,7 @@
         <v>8</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>263</v>
@@ -18827,7 +19216,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B141" s="7">
         <f t="shared" si="2"/>
@@ -18854,12 +19243,12 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="10" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B142" s="7">
         <f t="shared" si="2"/>
@@ -18886,12 +19275,12 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B143" s="7">
         <f t="shared" si="2"/>
@@ -18919,7 +19308,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B144" s="7">
         <f t="shared" si="2"/>
@@ -18932,7 +19321,7 @@
         <v>199</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>107</v>
@@ -18946,12 +19335,12 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="10" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B145" s="7">
         <f t="shared" si="2"/>
@@ -18961,10 +19350,10 @@
         <v>6.3</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>107</v>
@@ -18978,12 +19367,12 @@
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B146" s="7">
         <f t="shared" si="2"/>
@@ -18996,10 +19385,10 @@
         <v>75</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G146" s="8">
         <v>45340</v>
@@ -19010,12 +19399,12 @@
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B147" s="7">
         <f t="shared" si="2"/>
@@ -19026,10 +19415,10 @@
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G147" s="8">
         <v>45464</v>
@@ -19040,12 +19429,12 @@
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B148" s="7">
         <f t="shared" si="2"/>
@@ -19055,13 +19444,13 @@
         <v>5.9</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G148" s="12">
         <v>45459</v>
@@ -19072,12 +19461,12 @@
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B149" s="7">
         <f t="shared" si="2"/>
@@ -19088,7 +19477,7 @@
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="8">
@@ -19100,12 +19489,12 @@
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B150" s="7">
         <f t="shared" si="2"/>
@@ -19132,12 +19521,12 @@
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B151" s="7">
         <f t="shared" si="2"/>
@@ -19150,10 +19539,10 @@
         <v>199</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G151" s="12">
         <v>45473</v>
@@ -19164,12 +19553,12 @@
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B152" s="7">
         <f t="shared" si="2"/>
@@ -19179,10 +19568,10 @@
         <v>5.6</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>264</v>
@@ -19197,7 +19586,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B153" s="7">
         <f t="shared" si="2"/>
@@ -19210,7 +19599,7 @@
         <v>43</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>264</v>
@@ -19235,10 +19624,10 @@
         <v>5.6</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>264</v>
@@ -19253,7 +19642,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B155" s="7">
         <f t="shared" si="2"/>
@@ -19263,10 +19652,10 @@
         <v>5.4</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>10</v>
@@ -19280,12 +19669,12 @@
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B156" s="7">
         <f t="shared" si="2"/>
@@ -19295,7 +19684,7 @@
         <v>5.4</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>137</v>
@@ -19313,7 +19702,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B157" s="7">
         <f t="shared" si="2"/>
@@ -19323,7 +19712,7 @@
         <v>5.4</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>137</v>
@@ -19340,12 +19729,12 @@
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="10" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B158" s="7">
         <f t="shared" si="2"/>
@@ -19372,12 +19761,12 @@
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B159" s="7">
         <f t="shared" si="2"/>
@@ -19388,7 +19777,7 @@
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>107</v>
@@ -19402,12 +19791,12 @@
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B160" s="7">
         <f t="shared" si="2"/>
@@ -19434,12 +19823,12 @@
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B161" s="7">
         <f t="shared" si="2"/>
@@ -19466,12 +19855,12 @@
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B162" s="7">
         <f t="shared" si="2"/>
@@ -19482,7 +19871,7 @@
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="12">
@@ -19494,12 +19883,12 @@
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="10" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B163" s="7">
         <f t="shared" si="2"/>
@@ -19512,7 +19901,7 @@
         <v>37</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>39</v>
@@ -19527,7 +19916,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B164" s="7">
         <f t="shared" si="2"/>
@@ -19538,7 +19927,7 @@
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="10" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="12"/>
@@ -19551,7 +19940,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B165" s="7">
         <f t="shared" si="2"/>
@@ -19562,7 +19951,7 @@
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="12"/>
@@ -19575,7 +19964,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B166" s="7">
         <f t="shared" si="2"/>
@@ -19588,10 +19977,10 @@
         <v>154</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G166" s="8">
         <v>45341</v>
@@ -19602,12 +19991,12 @@
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B167" s="7">
         <f t="shared" si="2"/>
@@ -19618,7 +20007,7 @@
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>264</v>
@@ -19633,7 +20022,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B168" s="7">
         <f t="shared" si="2"/>
@@ -19643,7 +20032,7 @@
         <v>3.4</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>35</v>
@@ -19660,12 +20049,12 @@
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B169" s="7">
         <f t="shared" si="2"/>
@@ -19692,12 +20081,12 @@
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B170" s="7">
         <f t="shared" si="2"/>
@@ -19724,12 +20113,12 @@
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B171" s="7">
         <f t="shared" si="2"/>
@@ -19739,7 +20128,7 @@
         <v>2.5</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>89</v>
@@ -19756,7 +20145,7 @@
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
